--- a/DB設計.xlsx
+++ b/DB設計.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ren\Documents\システム開発Ⅰ\22310183-takadaren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E39A8138-11F4-42D1-A0B6-242B1AAE8C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E62F57-0934-45D2-88BE-FEFAD5548C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{8951CAD0-8A82-44D8-9452-D4ACAB77265A}"/>
   </bookViews>
   <sheets>
-    <sheet name="DB設計テンプレ" sheetId="2" r:id="rId1"/>
-    <sheet name="DB設計テンプレ (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="アルファベットメンバー" sheetId="2" r:id="rId1"/>
+    <sheet name="モールスメンバー" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="90">
   <si>
     <t>８バイト浮動小数点</t>
     <rPh sb="4" eb="9">
@@ -344,38 +344,7 @@
     <t>TINYINT</t>
   </si>
   <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>INT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>学生の連番番号</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>レンバン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>学生番号</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>student_id</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -573,19 +542,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アルファベットに割り振った番号</t>
-    <rPh sb="8" eb="9">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>alphabet</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -619,14 +575,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>morse_num</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>alphabet_num</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>モールス番号</t>
     <rPh sb="4" eb="6">
       <t>バンゴウ</t>
@@ -687,6 +635,25 @@
     <rPh sb="10" eb="12">
       <t>カクノウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>morse_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>alphabet_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アルファベットに割り振った番号</t>
+  </si>
+  <si>
+    <t>A,B,C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01,02,03</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1146,7 +1113,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1175,26 +1142,26 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K1" s="9">
         <v>45065</v>
@@ -1209,23 +1176,23 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1238,7 +1205,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1260,88 +1227,88 @@
     </row>
     <row r="4" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="L5" s="3" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>41</v>
@@ -1363,30 +1330,30 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="O6" s="3" t="s">
         <v>35</v>
       </c>
@@ -1408,21 +1375,11 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1667,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FC47ED-AFF7-42CD-8FBE-015FC0BBD651}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1697,26 +1654,26 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K1" s="9">
         <v>45065</v>
@@ -1731,23 +1688,23 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1760,7 +1717,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1782,88 +1739,88 @@
     </row>
     <row r="4" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="3">
-        <v>-1</v>
-      </c>
+      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="L5" s="3" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>41</v>
@@ -1885,28 +1842,28 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>43</v>
+        <v>78</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L6" s="3"/>
       <c r="O6" s="3" t="s">
@@ -1930,28 +1887,16 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="O7" s="3" t="s">
         <v>29</v>
